--- a/Data Files/C770.xlsx
+++ b/Data Files/C770.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916D2DD8-0418-D744-A2B9-A8DD1F570681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B99928-C76F-AC4F-9B69-9D760C686E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="28040" windowHeight="16820" xr2:uid="{6A8FC738-0419-FD46-BF26-E0747AEECBFE}"/>
   </bookViews>
@@ -44,25 +44,17 @@
     <t>password</t>
   </si>
   <si>
-    <t>0425222TM@WG.COM</t>
+    <t>03205108TM@WG.COM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,16 +77,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -430,7 +419,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,7 +433,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -453,7 +442,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2A0D54A4-97F0-F348-A81E-45516909F212}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{988B45D6-4D36-4C42-9A2B-F4E33636C481}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
